--- a/src/Pathway_Satge/Resources/usernames (1).xlsx
+++ b/src/Pathway_Satge/Resources/usernames (1).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8660E151-CE1F-4340-A8DE-26CDFAE03B63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DF9B7547-CD8B-47C2-8ADD-3E5B746263F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="17460" windowHeight="16500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14985" yWindow="5670" windowWidth="12960" windowHeight="12000" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flow Change" sheetId="1" r:id="rId1"/>
@@ -350,9 +350,6 @@
     <t>5AS1226A</t>
   </si>
   <si>
-    <t>4u2Changeme!</t>
-  </si>
-  <si>
     <t>Thiru.Bandi1@T-Mobile.com</t>
   </si>
   <si>
@@ -366,13 +363,16 @@
   </si>
   <si>
     <t>@Sept1809</t>
+  </si>
+  <si>
+    <t>4u2Changeme!!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,6 +416,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -545,7 +551,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -614,6 +620,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2811,7 +2818,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2831,15 +2838,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
       </c>
-      <c r="C2" t="s">
-        <v>108</v>
+      <c r="C2" s="26" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2850,7 +2857,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2858,10 +2865,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
@@ -2869,10 +2876,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>112</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
